--- a/Project/functions/public/web4/examples/Assignment2.xlsx
+++ b/Project/functions/public/web4/examples/Assignment2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -19,19 +19,16 @@
     <t>Marks</t>
   </si>
   <si>
-    <t>Nirasha Sewwandi</t>
-  </si>
-  <si>
-    <t>0/30</t>
-  </si>
-  <si>
-    <t>Thakshila Nadeeshani</t>
+    <t>W.A.T.N.Jayathilake</t>
   </si>
   <si>
     <t>Not Completed</t>
   </si>
   <si>
-    <t>Mahela Bandara</t>
+    <t>D.W.S.N.Sewwandi</t>
+  </si>
+  <si>
+    <t>L.R.M.U.BANDARA</t>
   </si>
 </sst>
 </file>
@@ -432,15 +429,15 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
